--- a/AnalysisPAPEERMS.xlsx
+++ b/AnalysisPAPEERMS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master\Files for R\PAPEE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master_Final\DataForAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580EBDD5-B909-44F8-84BD-A59DE43EC23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A0A95-28C3-402E-A4BE-489F4439D0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
   <si>
     <t>Subject</t>
   </si>
@@ -635,6 +635,82 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EE31FD-FD86-4CCC-ABF6-C08012A7F7A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13716000" y="3429000"/>
+          <a:ext cx="4514850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -932,15 +1008,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+      <selection activeCell="R1" sqref="R1:R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,6 +1050,9 @@
       <c r="P1" t="s">
         <v>10</v>
       </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
       <c r="T1" t="s">
         <v>18</v>
       </c>
@@ -983,8 +1062,14 @@
       <c r="Y1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1012,23 +1097,22 @@
       <c r="I2">
         <v>93.358522320000006</v>
       </c>
-      <c r="J2">
-        <f>AVERAGE(I2:I11)</f>
-        <v>89.843549285000009</v>
-      </c>
       <c r="O2">
         <v>1.105239804</v>
       </c>
       <c r="P2">
         <v>1.1838660000000001</v>
       </c>
+      <c r="R2">
+        <v>91.166541379999998</v>
+      </c>
       <c r="T2">
-        <f>AVERAGE(I2:I11)</f>
-        <v>89.843549285000009</v>
+        <f>AVERAGE(H2:H11)</f>
+        <v>90.457409560999992</v>
       </c>
       <c r="U2">
-        <f>_xlfn.STDEV.S(I2:I11)</f>
-        <v>3.144756951434394</v>
+        <f>_xlfn.STDEV.S(H2:H11)</f>
+        <v>4.8088722707156402</v>
       </c>
       <c r="X2" t="s">
         <v>2</v>
@@ -1039,8 +1123,16 @@
       <c r="Z2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD2">
+        <f>AVERAGE(R2:R11)</f>
+        <v>91.97019939444445</v>
+      </c>
+      <c r="AE2">
+        <f>_xlfn.STDEV.S(R2:R11)</f>
+        <v>2.9947976604798683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1068,31 +1160,22 @@
       <c r="I3">
         <v>89.118054610000002</v>
       </c>
-      <c r="J3">
-        <f>AVERAGE(I13:I22)</f>
-        <v>111.34514577666667</v>
-      </c>
-      <c r="K3">
-        <f>100/J2*J3</f>
-        <v>123.932265213009</v>
-      </c>
-      <c r="L3">
-        <f>(J3*100)/J2</f>
-        <v>123.932265213009</v>
-      </c>
       <c r="O3">
         <v>1.2623260519999999</v>
       </c>
       <c r="P3">
         <v>1.4164650000000001</v>
       </c>
+      <c r="R3">
+        <v>89.76463253</v>
+      </c>
       <c r="T3">
-        <f>AVERAGE(I13:I22)</f>
-        <v>111.34514577666667</v>
+        <f>AVERAGE(H13:H22)</f>
+        <v>115.48873069222221</v>
       </c>
       <c r="U3">
-        <f>_xlfn.STDEV.S(I13:I22)</f>
-        <v>18.201108027940993</v>
+        <f>_xlfn.STDEV.S(H13:H22)</f>
+        <v>22.040368689260024</v>
       </c>
       <c r="Y3">
         <v>1.875</v>
@@ -1100,8 +1183,16 @@
       <c r="Z3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <f>AVERAGE(R13:R22)</f>
+        <v>115.57849723500001</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.STDEV.S(R13:R22)</f>
+        <v>31.027458924687437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1129,27 +1220,22 @@
       <c r="I4">
         <v>88.881537640000005</v>
       </c>
-      <c r="J4">
-        <f>AVERAGE(I24:I33)</f>
-        <v>90.095643216666673</v>
-      </c>
-      <c r="K4">
-        <f>100/J4*J3</f>
-        <v>123.58549403870518</v>
-      </c>
       <c r="O4">
         <v>0.266625948</v>
       </c>
       <c r="P4">
         <v>0.299979</v>
       </c>
+      <c r="R4">
+        <v>88.620096509999996</v>
+      </c>
       <c r="T4">
-        <f>AVERAGE(I24:I33)</f>
-        <v>90.095643216666673</v>
+        <f>AVERAGE(H24:H33)</f>
+        <v>86.89092703</v>
       </c>
       <c r="U4">
-        <f>_xlfn.STDEV.S(I24:I33)</f>
-        <v>13.543333591675884</v>
+        <f>_xlfn.STDEV.S(H24:H33)</f>
+        <v>9.4986422357168045</v>
       </c>
       <c r="Y4">
         <v>0.1865</v>
@@ -1157,8 +1243,16 @@
       <c r="Z4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <f>AVERAGE(R24:R33)</f>
+        <v>93.085838974999987</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.STDEV.S(R24:R33)</f>
+        <v>18.001245221891569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1192,13 +1286,16 @@
       <c r="P5">
         <v>1.536627</v>
       </c>
+      <c r="R5">
+        <v>94.526919280000001</v>
+      </c>
       <c r="T5">
-        <f>AVERAGE(I35:I44)</f>
-        <v>97.700989246999995</v>
+        <f>AVERAGE(H35:H44)</f>
+        <v>95.979494740372843</v>
       </c>
       <c r="U5">
-        <f>_xlfn.STDEV.S(I35:I44)</f>
-        <v>11.741879609772754</v>
+        <f>_xlfn.STDEV.S(H35:H44)</f>
+        <v>12.153841824205255</v>
       </c>
       <c r="Y5">
         <v>2.1705999999999999</v>
@@ -1206,8 +1303,16 @@
       <c r="Z5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <f>AVERAGE(R35:R44)</f>
+        <v>99.314414794358754</v>
+      </c>
+      <c r="AE5">
+        <f>_xlfn.STDEV.S(R35:R44)</f>
+        <v>12.345245061305564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1215,25 +1320,26 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1.68308686</v>
+        <v>0.32670399999999999</v>
       </c>
       <c r="D6">
-        <v>89.76463253</v>
+        <v>97.99</v>
       </c>
       <c r="E6">
-        <v>2.0836849499999999</v>
+        <v>0.383629</v>
       </c>
       <c r="F6">
-        <v>88.310445009999995</v>
+        <v>92.85</v>
       </c>
       <c r="G6">
-        <v>1.4198678499999999</v>
+        <v>0.32727159</v>
       </c>
       <c r="H6">
-        <v>89.536375960000001</v>
+        <v>91.78</v>
       </c>
       <c r="I6">
-        <v>89.118054610000002</v>
+        <f>(C6*0.17+E6*0.35+G6*0.23)/K10*100</f>
+        <v>93.575982436051746</v>
       </c>
       <c r="O6">
         <v>1.2753905000000001</v>
@@ -1241,13 +1347,16 @@
       <c r="P6">
         <v>1.3479289999999999</v>
       </c>
+      <c r="R6">
+        <v>97.99</v>
+      </c>
       <c r="T6">
-        <f>AVERAGE(I46:I55)</f>
-        <v>94.633132337777781</v>
+        <f>AVERAGE(H46:H55)</f>
+        <v>93.982369923576741</v>
       </c>
       <c r="U6">
-        <f>_xlfn.STDEV.S(I46:I55)</f>
-        <v>15.597530923452412</v>
+        <f>_xlfn.STDEV.S(H46:H55)</f>
+        <v>11.190622550946426</v>
       </c>
       <c r="Y6">
         <v>2.6856</v>
@@ -1255,8 +1364,16 @@
       <c r="Z6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <f>AVERAGE(R46:R55)</f>
+        <v>94.975400720690132</v>
+      </c>
+      <c r="AE6">
+        <f>_xlfn.STDEV.S(R46:R55)</f>
+        <v>16.476045060046701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1290,6 +1407,9 @@
       <c r="P7">
         <v>0.442301</v>
       </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
       <c r="Y7">
         <v>0.76100000000000001</v>
       </c>
@@ -1297,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1331,6 +1451,9 @@
       <c r="P8">
         <v>1.321331</v>
       </c>
+      <c r="R8">
+        <v>89.609263889999994</v>
+      </c>
       <c r="Y8">
         <v>2.3338999999999999</v>
       </c>
@@ -1338,7 +1461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1372,6 +1495,9 @@
       <c r="P9">
         <v>0.23519200000000001</v>
       </c>
+      <c r="R9">
+        <v>91.773914000000005</v>
+      </c>
       <c r="Y9">
         <v>0.31859999999999999</v>
       </c>
@@ -1379,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1407,12 +1533,19 @@
       <c r="I10">
         <v>83.795726990000006</v>
       </c>
+      <c r="K10">
+        <f>(K12*0.17)+(L12*0.35)+(M12*0.23)</f>
+        <v>0.28328027</v>
+      </c>
       <c r="O10">
         <v>1.452084422</v>
       </c>
       <c r="P10">
         <v>1.7328859999999999</v>
       </c>
+      <c r="R10">
+        <v>90.327514719999996</v>
+      </c>
       <c r="Y10">
         <v>2.0718000000000001</v>
       </c>
@@ -1420,7 +1553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1454,6 +1587,9 @@
       <c r="P11">
         <v>0.65540699999999996</v>
       </c>
+      <c r="R11">
+        <v>93.952912240000003</v>
+      </c>
       <c r="Y11">
         <v>0.85570000000000002</v>
       </c>
@@ -1461,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1489,12 +1625,24 @@
       <c r="I12">
         <v>94.618522220000003</v>
       </c>
+      <c r="K12">
+        <v>0.33340500000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.41312900000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.356549</v>
+      </c>
       <c r="O12">
         <v>1.2623260519999999</v>
       </c>
       <c r="P12">
         <v>1.4164650000000001</v>
       </c>
+      <c r="R12">
+        <v>94.835202190000004</v>
+      </c>
       <c r="Y12">
         <v>1.875</v>
       </c>
@@ -1502,7 +1650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1533,6 +1681,9 @@
       <c r="O13">
         <v>1.3840205249999999</v>
       </c>
+      <c r="R13">
+        <v>100.3579201</v>
+      </c>
       <c r="Y13">
         <v>1.6649</v>
       </c>
@@ -1540,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1568,9 +1719,24 @@
       <c r="I14">
         <v>139.0489001</v>
       </c>
+      <c r="K14">
+        <f>C28/K12</f>
+        <v>1.1838154796718705</v>
+      </c>
+      <c r="L14">
+        <f>E28/L12</f>
+        <v>1.0761795952353865</v>
+      </c>
+      <c r="M14">
+        <f>G28/M12</f>
+        <v>0.93201775912988116</v>
+      </c>
       <c r="O14">
         <v>1.969579003</v>
       </c>
+      <c r="R14">
+        <v>144.63511790000001</v>
+      </c>
       <c r="Y14">
         <v>2.3595000000000002</v>
       </c>
@@ -1578,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1609,6 +1775,9 @@
       <c r="O15">
         <v>0.279842384</v>
       </c>
+      <c r="R15">
+        <v>105.455319</v>
+      </c>
       <c r="Y15">
         <v>0.73180000000000001</v>
       </c>
@@ -1616,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1646,6 +1815,9 @@
       </c>
       <c r="O16">
         <v>1.4761524420000001</v>
+      </c>
+      <c r="R16">
+        <v>96.064123739999999</v>
       </c>
       <c r="Y16">
         <v>2.4144999999999999</v>
@@ -1662,28 +1834,32 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>2.7119084600000001</v>
+        <v>0.62329800000000002</v>
       </c>
       <c r="D17">
-        <v>144.63511790000001</v>
+        <v>186.94</v>
       </c>
       <c r="E17">
-        <v>3.0843897899999999</v>
+        <v>0.71662919999999997</v>
       </c>
       <c r="F17">
-        <v>130.72217800000001</v>
+        <v>173.46</v>
       </c>
       <c r="G17">
-        <v>2.2832711799999998</v>
+        <v>0.50719437000000001</v>
       </c>
       <c r="H17">
-        <v>143.9822916</v>
+        <v>142.25</v>
       </c>
       <c r="I17">
-        <v>139.0489001</v>
+        <f>(C17*0.17+E17*0.35+G17*0.23)/K10*100</f>
+        <v>167.12621217849022</v>
       </c>
       <c r="O17">
         <v>1.7350750100000001</v>
+      </c>
+      <c r="R17">
+        <v>186.94</v>
       </c>
       <c r="Y17">
         <v>2.0693999999999999</v>
@@ -1723,6 +1899,9 @@
       <c r="O18">
         <v>0.464948994</v>
       </c>
+      <c r="R18">
+        <v>100.8896689</v>
+      </c>
       <c r="Y18">
         <v>0.55069999999999997</v>
       </c>
@@ -1761,6 +1940,9 @@
       <c r="O19">
         <v>1.425719057</v>
       </c>
+      <c r="R19">
+        <v>108.8097643</v>
+      </c>
       <c r="Y19">
         <v>2.0766</v>
       </c>
@@ -1800,6 +1982,9 @@
         <f>0.17*C20+0.23*E20+0.35*G20</f>
         <v>0.70336785050000006</v>
       </c>
+      <c r="R20">
+        <v>88.879284369999993</v>
+      </c>
       <c r="Y20">
         <v>0.312</v>
       </c>
@@ -1838,6 +2023,9 @@
       <c r="O21">
         <v>1.990581266</v>
       </c>
+      <c r="R21">
+        <v>134.357911</v>
+      </c>
       <c r="Y21">
         <v>2.5165000000000002</v>
       </c>
@@ -1876,6 +2064,9 @@
       <c r="O22">
         <v>0.58893748099999998</v>
       </c>
+      <c r="R22">
+        <v>89.395863039999995</v>
+      </c>
       <c r="Y22">
         <v>0.83660000000000001</v>
       </c>
@@ -1914,6 +2105,9 @@
       <c r="O23">
         <v>1.969579003</v>
       </c>
+      <c r="R23">
+        <v>121.04739979999999</v>
+      </c>
       <c r="Y23">
         <v>2.3595000000000002</v>
       </c>
@@ -1952,6 +2146,9 @@
       <c r="O24">
         <v>1.0103633489999999</v>
       </c>
+      <c r="R24">
+        <v>80.440706219999996</v>
+      </c>
       <c r="Y24">
         <v>1.1356999999999999</v>
       </c>
@@ -1990,6 +2187,9 @@
       <c r="O25">
         <v>1.555775388</v>
       </c>
+      <c r="R25">
+        <v>117.06966130000001</v>
+      </c>
       <c r="Y25">
         <v>1.5858000000000001</v>
       </c>
@@ -2028,6 +2228,9 @@
       <c r="O26">
         <v>0.29450689499999999</v>
       </c>
+      <c r="R26">
+        <v>76.132852549999996</v>
+      </c>
       <c r="Y26">
         <v>0.28560000000000002</v>
       </c>
@@ -2066,6 +2269,9 @@
       <c r="O27">
         <v>1.3453375889999999</v>
       </c>
+      <c r="R27">
+        <v>93.637891370000006</v>
+      </c>
       <c r="Y27">
         <v>1.7494000000000001</v>
       </c>
@@ -2081,28 +2287,32 @@
         <v>15</v>
       </c>
       <c r="C28">
-        <v>2.1950561500000001</v>
+        <v>0.39468999999999999</v>
       </c>
       <c r="D28">
-        <v>117.06966130000001</v>
+        <v>118.38</v>
       </c>
       <c r="E28">
-        <v>2.5645289299999998</v>
+        <v>0.44460100000000002</v>
       </c>
       <c r="F28">
-        <v>108.6895075</v>
+        <v>107.61</v>
       </c>
       <c r="G28">
-        <v>1.6936405400000001</v>
+        <v>0.33230999999999999</v>
       </c>
       <c r="H28">
-        <v>106.8003872</v>
+        <v>93.2</v>
       </c>
       <c r="I28">
-        <v>109.8350745</v>
+        <f>(C28*0.17+E28*0.35+G28*0.23)/K10*100</f>
+        <v>105.59822962608727</v>
       </c>
       <c r="O28">
         <v>1.590245583</v>
+      </c>
+      <c r="R28">
+        <v>118.38</v>
       </c>
       <c r="Y28">
         <v>1.1869000000000001</v>
@@ -2142,6 +2352,9 @@
       <c r="O29">
         <v>0.367432751</v>
       </c>
+      <c r="R29">
+        <v>87.423930350000006</v>
+      </c>
       <c r="Y29">
         <v>0.53220000000000001</v>
       </c>
@@ -2180,6 +2393,9 @@
       <c r="O30">
         <v>0.90141954000000002</v>
       </c>
+      <c r="R30">
+        <v>69.635750889999997</v>
+      </c>
       <c r="Y30">
         <v>1.2769999999999999</v>
       </c>
@@ -2218,6 +2434,9 @@
       <c r="O31">
         <v>0.72211802199999997</v>
       </c>
+      <c r="R31">
+        <v>106.5579912</v>
+      </c>
       <c r="Y31">
         <v>0.31219999999999998</v>
       </c>
@@ -2256,6 +2475,9 @@
       <c r="O32">
         <v>1.476857106</v>
       </c>
+      <c r="R32">
+        <v>106.2780399</v>
+      </c>
       <c r="Y32">
         <v>2.2911000000000001</v>
       </c>
@@ -2294,6 +2516,9 @@
       <c r="O33">
         <v>0.54792149000000001</v>
       </c>
+      <c r="R33">
+        <v>75.301565969999999</v>
+      </c>
       <c r="Y33">
         <v>0.90720000000000001</v>
       </c>
@@ -2332,6 +2557,9 @@
       <c r="O34">
         <v>1.555775388</v>
       </c>
+      <c r="R34">
+        <v>113.066209</v>
+      </c>
       <c r="Y34">
         <v>1.5858000000000001</v>
       </c>
@@ -2370,6 +2598,9 @@
       <c r="O35">
         <v>1.2209414510000001</v>
       </c>
+      <c r="R35">
+        <v>95.094731589999995</v>
+      </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2402,6 +2633,9 @@
       <c r="O36">
         <v>1.5844655459999999</v>
       </c>
+      <c r="R36">
+        <v>114.32637389999999</v>
+      </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2434,6 +2668,9 @@
       <c r="O37">
         <v>0.327476763</v>
       </c>
+      <c r="R37">
+        <v>108.75486859999999</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2466,6 +2703,9 @@
       <c r="O38">
         <v>1.30336487</v>
       </c>
+      <c r="R38">
+        <v>88.849637430000001</v>
+      </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -2475,28 +2715,35 @@
         <v>16</v>
       </c>
       <c r="C39">
-        <v>2.1436195100000002</v>
+        <v>0.37317830000000002</v>
       </c>
       <c r="D39">
-        <v>114.32637389999999</v>
+        <f>C39/K12*100</f>
+        <v>111.92942517358769</v>
       </c>
       <c r="E39">
-        <v>2.57887946</v>
+        <v>0.45213599999999998</v>
       </c>
       <c r="F39">
-        <v>109.2977097</v>
+        <f>E39/L12*100</f>
+        <v>109.44184504113726</v>
       </c>
       <c r="G39">
-        <v>1.7911655799999999</v>
+        <v>0.32951900000000001</v>
       </c>
       <c r="H39">
-        <v>112.9502825</v>
+        <f>G39/M12*100</f>
+        <v>92.41899430372824</v>
       </c>
       <c r="I39">
-        <v>111.86055039999999</v>
+        <f>(C39*0.17+E39*0.35+G39*0.23)/K10*100</f>
+        <v>105.0116483580025</v>
       </c>
       <c r="O39">
         <v>1.78128094</v>
+      </c>
+      <c r="R39">
+        <v>111.92942517358769</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -2530,6 +2777,9 @@
       <c r="O40">
         <v>0.37451540799999999</v>
       </c>
+      <c r="R40">
+        <v>91.34981209</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -2562,6 +2812,9 @@
       <c r="O41">
         <v>1.1098965700000001</v>
       </c>
+      <c r="R41">
+        <v>85.233570420000007</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -2594,6 +2847,9 @@
       <c r="O42">
         <v>0.24443575400000001</v>
       </c>
+      <c r="R42">
+        <v>97.694664160000002</v>
+      </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2626,6 +2882,9 @@
       <c r="O43">
         <v>1.67424325</v>
       </c>
+      <c r="R43">
+        <v>115.85455880000001</v>
+      </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -2658,6 +2917,9 @@
       <c r="O44">
         <v>0.56988782100000002</v>
       </c>
+      <c r="R44">
+        <v>84.056505779999995</v>
+      </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -2690,6 +2952,9 @@
       <c r="O45">
         <v>1.5844655459999999</v>
       </c>
+      <c r="R45">
+        <v>119.38448390000001</v>
+      </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -2722,6 +2987,9 @@
       <c r="O46">
         <v>1.0501714230000001</v>
       </c>
+      <c r="R46">
+        <v>86.000960730000003</v>
+      </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -2754,6 +3022,9 @@
       <c r="O47">
         <v>1.4868366749999999</v>
       </c>
+      <c r="R47">
+        <v>111.0747195</v>
+      </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -2786,8 +3057,11 @@
       <c r="O48">
         <v>0.37587446000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>108.0886756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2818,8 +3092,11 @@
       <c r="O49">
         <v>1.2351592039999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>84.019695940000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2827,31 +3104,38 @@
         <v>17</v>
       </c>
       <c r="C50">
-        <v>2.0826509899999999</v>
+        <v>0.38344</v>
       </c>
       <c r="D50">
-        <v>111.0747195</v>
+        <f>C50/K12*100</f>
+        <v>115.00727343621122</v>
       </c>
       <c r="E50">
-        <v>2.4487913099999998</v>
+        <v>0.453287</v>
       </c>
       <c r="F50">
-        <v>103.7843318</v>
+        <f>E50/L12*100</f>
+        <v>109.72045051303587</v>
       </c>
       <c r="G50">
-        <v>1.6273257299999999</v>
+        <v>0.33323409999999998</v>
       </c>
       <c r="H50">
-        <v>102.61859819999999</v>
+        <f>G50/M12*100</f>
+        <v>93.460954875767428</v>
       </c>
       <c r="I50">
-        <v>104.96811959999999</v>
+        <f>(C50*0.17+E50*0.35+G50*0.23)/K10*100</f>
+        <v>106.0713098727278</v>
       </c>
       <c r="O50">
         <v>1.5204221979999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>115.00727343621122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -2882,8 +3166,11 @@
       <c r="O51">
         <v>0.31695432699999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>68.262432329999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -2914,16 +3201,19 @@
       <c r="O52">
         <v>1.205951483</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>87.787033289999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
-      <c r="C53" t="s">
-        <v>13</v>
+      <c r="C53">
+        <v>1.7604474999999999</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -2946,8 +3236,11 @@
       <c r="O53" t="e">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -2978,8 +3271,11 @@
       <c r="O54">
         <v>1.5760756389999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>110.7395207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -3010,8 +3306,11 @@
       <c r="O55">
         <v>0.61276868900000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>83.798294960000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
@@ -3042,8 +3341,13 @@
       <c r="O56">
         <v>1.4868366749999999</v>
       </c>
+      <c r="R56">
+        <v>105.4529208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>